--- a/output.xlsx
+++ b/output.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,51 +456,71 @@
           <t>Status Description</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/chainparrot/Nodes/main/1.py</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>404 Client Error: Not Found for url: https://raw.githubusercontent.com/chainparrot/Nodes/main/1.py</t>
-        </is>
+          <t>https://limenya.com/evm-kullanarak-ethereum-killer-olunur-mu</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>301</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>404 Client Error: Not Found for url: https://raw.githubusercontent.com/chainparrot/Nodes/main/1.py</t>
+          <t>Moved Permanently</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Redirection</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.google.com/</t>
+          <t>https://limenya.com/author/yusuf</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Moved Permanently</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Redirection</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>200</v>
+          <t>https://limenya.com/sfsfsdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>404 Client Error: Not Found for url: https://limenya.com/sfsfsdf</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>404 Client Error: Not Found for url: https://limenya.com/sfsfsdf</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Client Error</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,28 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.doctorfmh.ch/docapi/v1/docs/en?canton=4&amp;practice=1&amp;startrecord=0</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>400 Client Error: Bad Request for url: https://www.doctorfmh.ch/docapi/v1/docs/en?canton=4&amp;practice=1&amp;startrecord=0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>400 Client Error: Bad Request for url: https://www.doctorfmh.ch/docapi/v1/docs/en?canton=4&amp;practice=1&amp;startrecord=0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Client Error</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
